--- a/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -457,7 +457,8 @@
     <t>The product this package model relates to, not the contents of the package (for which see package.containedItem).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packageFor` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PackagedProductDefinition.packageFor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PackagedProductDefinition.packageFor` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packageFor.id</t>
@@ -952,7 +953,8 @@
     <t>Manufacturer of this package type. When there are multiple it means these are all possible manufacturers.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.manufacturer` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PackagedProductDefinition.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PackagedProductDefinition.manufacturer` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:manufacturer.id</t>
@@ -983,7 +985,8 @@
     <t>Additional information or supporting documentation about the packaged product.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.attachedDocument` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PackagedProductDefinition.attachedDocument` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PackagedProductDefinition.attachedDocument` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:attachedDocument.id</t>
@@ -1396,7 +1399,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="169.84375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="209.7734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7448" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7448" uniqueCount="542">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>A high level categorisation of a package.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-package-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:packageFor</t>
@@ -473,7 +473,7 @@
     <t>Extension.extension:packageFor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
 </t>
   </si>
   <si>
@@ -502,15 +502,6 @@
   </si>
   <si>
     <t>Extension.extension:status.value[x]</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:statusDate</t>
@@ -670,7 +661,7 @@
     <t>The prescription supply types appropriate to a medicinal product</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-legal-status-of-supply-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-legal-status-of-supply-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:legalStatusOfSupply.extension:jurisdiction</t>
@@ -701,12 +692,6 @@
     <t>Extension.extension:legalStatusOfSupply.extension:jurisdiction.value[x]</t>
   </si>
   <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:legalStatusOfSupply.url</t>
   </si>
   <si>
@@ -969,7 +954,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -1001,7 +986,7 @@
     <t>Extension.extension:attachedDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
 </t>
   </si>
   <si>
@@ -1083,7 +1068,7 @@
     <t>Extension.extension:packaging.extension:type.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-packaging-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-packaging-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:componentPart</t>
@@ -1177,7 +1162,7 @@
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-package-material-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-material-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:alternateMaterial</t>
@@ -1559,8 +1544,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:concept.id</t>
@@ -1587,8 +1571,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:reference.id</t>
@@ -1603,7 +1586,7 @@
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|0.0.1-snapshot-3|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct)
 </t>
   </si>
   <si>
@@ -2059,7 +2042,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.61328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4544,13 +4527,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4588,13 +4571,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4619,14 +4602,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4695,7 +4678,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4798,7 +4781,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4903,7 +4886,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4946,7 +4929,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5008,7 +4991,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -5034,13 +5017,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5111,13 +5094,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5142,14 +5125,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5321,7 +5304,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5426,7 +5409,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5469,7 +5452,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5531,7 +5514,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -5557,13 +5540,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5634,13 +5617,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5665,14 +5648,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5741,7 +5724,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5844,7 +5827,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5949,7 +5932,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5992,7 +5975,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6054,7 +6037,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>121</v>
@@ -6080,13 +6063,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6157,13 +6140,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6188,14 +6171,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6264,7 +6247,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6367,7 +6350,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6470,13 +6453,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6501,14 +6484,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6577,10 +6560,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6680,10 +6663,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6785,10 +6768,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6828,7 +6811,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6890,10 +6873,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6919,10 +6902,10 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6952,10 +6935,10 @@
         <v>134</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6993,13 +6976,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7024,14 +7007,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7100,10 +7083,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7203,10 +7186,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7308,10 +7291,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7351,7 +7334,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7413,10 +7396,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7442,10 +7425,10 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7472,13 +7455,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7516,7 +7499,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7559,7 +7542,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7621,7 +7604,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -7647,13 +7630,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7724,13 +7707,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7755,14 +7738,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7831,7 +7814,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7934,7 +7917,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -8037,13 +8020,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -8068,10 +8051,10 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8142,10 +8125,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8245,10 +8228,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8350,10 +8333,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8393,7 +8376,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8455,10 +8438,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8484,13 +8467,13 @@
         <v>87</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8498,7 +8481,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -8560,13 +8543,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8591,14 +8574,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8667,10 +8650,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8770,10 +8753,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8875,10 +8858,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8918,7 +8901,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8980,10 +8963,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9009,10 +8992,10 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9083,13 +9066,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -9114,14 +9097,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9190,10 +9173,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9293,10 +9276,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9398,10 +9381,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9441,7 +9424,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9503,10 +9486,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9532,10 +9515,10 @@
         <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9606,7 +9589,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
@@ -9637,14 +9620,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9713,10 +9696,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9816,10 +9799,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9921,10 +9904,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10026,10 +10009,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10055,10 +10038,10 @@
         <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10129,13 +10112,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10160,14 +10143,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10236,10 +10219,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10339,10 +10322,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10444,10 +10427,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10487,7 +10470,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10549,10 +10532,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10575,13 +10558,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10652,13 +10635,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10683,14 +10666,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10759,10 +10742,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10862,10 +10845,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10967,10 +10950,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11010,7 +10993,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11072,10 +11055,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11098,13 +11081,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11175,7 +11158,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -11218,7 +11201,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11280,7 +11263,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>121</v>
@@ -11306,13 +11289,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11383,13 +11366,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11414,14 +11397,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11490,7 +11473,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11593,7 +11576,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -11698,7 +11681,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -11741,7 +11724,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11803,7 +11786,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>121</v>
@@ -11829,13 +11812,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11906,13 +11889,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11937,14 +11920,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12013,7 +11996,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -12116,7 +12099,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -12221,7 +12204,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -12264,7 +12247,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12326,7 +12309,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>121</v>
@@ -12352,13 +12335,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12429,13 +12412,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12460,14 +12443,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12536,7 +12519,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12639,7 +12622,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12744,7 +12727,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12787,7 +12770,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12849,7 +12832,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>121</v>
@@ -12875,13 +12858,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12952,13 +12935,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12983,14 +12966,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13059,7 +13042,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -13162,7 +13145,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -13265,13 +13248,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13296,14 +13279,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13372,10 +13355,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13475,10 +13458,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13580,10 +13563,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13623,7 +13606,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13685,10 +13668,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13711,13 +13694,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13788,7 +13771,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
@@ -13819,14 +13802,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13895,10 +13878,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13998,10 +13981,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14103,10 +14086,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14208,10 +14191,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14237,10 +14220,10 @@
         <v>133</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14273,7 +14256,7 @@
         <v>135</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14311,13 +14294,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14342,14 +14325,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14418,10 +14401,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14521,10 +14504,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14626,10 +14609,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14669,7 +14652,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14731,10 +14714,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14757,13 +14740,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14834,13 +14817,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14865,14 +14848,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14941,10 +14924,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15044,10 +15027,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15149,10 +15132,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15192,7 +15175,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15254,10 +15237,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15280,13 +15263,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15357,13 +15340,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15388,14 +15371,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15464,10 +15447,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15567,10 +15550,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15672,10 +15655,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15715,7 +15698,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15777,10 +15760,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15806,10 +15789,10 @@
         <v>133</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15839,10 +15822,10 @@
         <v>134</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>77</v>
@@ -15880,13 +15863,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15911,14 +15894,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15987,10 +15970,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16090,10 +16073,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16195,10 +16178,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16238,7 +16221,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16300,10 +16283,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16329,10 +16312,10 @@
         <v>133</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16362,10 +16345,10 @@
         <v>134</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16403,13 +16386,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16434,14 +16417,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16510,10 +16493,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16613,10 +16596,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16716,13 +16699,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16747,10 +16730,10 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -16821,10 +16804,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16924,10 +16907,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17029,10 +17012,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17072,7 +17055,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17134,10 +17117,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17163,13 +17146,13 @@
         <v>87</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -17177,7 +17160,7 @@
       </c>
       <c r="Q145" s="2"/>
       <c r="R145" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="S145" t="s" s="2">
         <v>77</v>
@@ -17239,10 +17222,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>125</v>
@@ -17270,14 +17253,14 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17346,10 +17329,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17449,10 +17432,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17554,10 +17537,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17659,10 +17642,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17688,10 +17671,10 @@
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17762,13 +17745,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17793,14 +17776,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17869,10 +17852,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17972,10 +17955,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18077,10 +18060,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18120,7 +18103,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18182,10 +18165,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18211,10 +18194,10 @@
         <v>87</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18285,13 +18268,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18316,14 +18299,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18392,10 +18375,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18495,10 +18478,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18600,10 +18583,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18643,7 +18626,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18705,10 +18688,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18734,10 +18717,10 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18808,10 +18791,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18851,7 +18834,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18913,10 +18896,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18939,13 +18922,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19016,13 +18999,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19047,14 +19030,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19123,10 +19106,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19226,10 +19209,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19331,10 +19314,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19374,7 +19357,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19436,10 +19419,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19462,13 +19445,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19539,13 +19522,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19570,14 +19553,14 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19646,10 +19629,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19749,10 +19732,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19852,10 +19835,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>125</v>
@@ -19883,14 +19866,14 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -19959,10 +19942,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20062,10 +20045,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20167,10 +20150,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20272,10 +20255,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20301,10 +20284,10 @@
         <v>133</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -20375,13 +20358,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20406,14 +20389,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20482,10 +20465,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20585,10 +20568,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20690,10 +20673,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20733,7 +20716,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20795,10 +20778,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20821,13 +20804,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -20898,10 +20881,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20941,7 +20924,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21003,10 +20986,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21029,13 +21012,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21106,13 +21089,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21137,14 +21120,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21213,10 +21196,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21316,10 +21299,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21419,13 +21402,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21450,14 +21433,14 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -21526,10 +21509,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21629,10 +21612,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21732,13 +21715,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>77</v>
@@ -21763,10 +21746,10 @@
         <v>93</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21837,10 +21820,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21940,10 +21923,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22045,10 +22028,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22088,7 +22071,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>77</v>
@@ -22150,10 +22133,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22179,13 +22162,13 @@
         <v>87</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -22193,7 +22176,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22255,13 +22238,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>77</v>
@@ -22286,14 +22269,14 @@
         <v>93</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>77</v>
@@ -22362,10 +22345,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22465,10 +22448,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22570,10 +22553,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22613,7 +22596,7 @@
       </c>
       <c r="Q197" s="2"/>
       <c r="R197" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>77</v>
@@ -22675,10 +22658,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22704,10 +22687,10 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -22778,13 +22761,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D199" t="s" s="2">
         <v>77</v>
@@ -22809,14 +22792,14 @@
         <v>93</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>77</v>
@@ -22885,10 +22868,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22988,10 +22971,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23093,10 +23076,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23136,7 +23119,7 @@
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>77</v>
@@ -23198,10 +23181,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23224,13 +23207,13 @@
         <v>77</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23301,10 +23284,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23344,7 +23327,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>77</v>
@@ -23406,10 +23389,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23432,13 +23415,13 @@
         <v>77</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -23509,13 +23492,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -23540,14 +23523,14 @@
         <v>93</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -23616,10 +23599,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23719,10 +23702,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23824,10 +23807,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -23867,7 +23850,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -23929,10 +23912,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -23955,13 +23938,13 @@
         <v>77</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24032,10 +24015,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24075,7 +24058,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24137,10 +24120,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24163,13 +24146,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24240,13 +24223,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24271,14 +24254,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24347,10 +24330,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24450,10 +24433,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24555,10 +24538,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24598,7 +24581,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24660,10 +24643,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24686,13 +24669,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24763,7 +24746,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -24806,7 +24789,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24868,7 +24851,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>121</v>
@@ -24894,13 +24877,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -24971,13 +24954,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -25002,14 +24985,14 @@
         <v>93</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25078,7 +25061,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>105</v>
@@ -25181,7 +25164,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>107</v>
@@ -25286,7 +25269,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>113</v>
@@ -25329,7 +25312,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25391,7 +25374,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>121</v>
@@ -25417,13 +25400,13 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25625,13 +25608,13 @@
         <v>77</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>

--- a/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
+++ b/StructureDefinition-ext-R5-PackagedProductDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7448" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7448" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>A high level categorisation of a package.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:packageFor</t>
@@ -473,7 +473,7 @@
     <t>Extension.extension:packageFor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -502,6 +502,15 @@
   </si>
   <si>
     <t>Extension.extension:status.value[x]</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:statusDate</t>
@@ -630,8 +639,7 @@
     <t>The actual status of supply. Conveys in what situation this package type may be supplied for use.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.legalStatusOfSupply.code` is part of an existing definition because parent element `PackagedProductDefinition.legalStatusOfSupply` requires a cross-version extension.
-Element `PackagedProductDefinition.legalStatusOfSupply.code` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.legalStatusOfSupply.code` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:legalStatusOfSupply.extension:code.id</t>
@@ -661,7 +669,7 @@
     <t>The prescription supply types appropriate to a medicinal product</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-legal-status-of-supply-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-legal-status-of-supply-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:legalStatusOfSupply.extension:jurisdiction</t>
@@ -676,8 +684,7 @@
     <t>The place where the legal status of supply applies. When not specified, this indicates it is unknown in this context.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.legalStatusOfSupply.jurisdiction` is part of an existing definition because parent element `PackagedProductDefinition.legalStatusOfSupply` requires a cross-version extension.
-Element `PackagedProductDefinition.legalStatusOfSupply.jurisdiction` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.legalStatusOfSupply.jurisdiction` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:legalStatusOfSupply.extension:jurisdiction.id</t>
@@ -774,7 +781,7 @@
     <t>The country in which the marketing authorization has been granted shall be specified It should be specified using the ISO 3166 ‑ 1 alpha-2 code elements.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.country` has is mapped to FHIR R4 element `MarketingStatus.country`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.country` is mapped to FHIR R4 element `MarketingStatus.country` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:country.id</t>
@@ -798,7 +805,7 @@
     <t>Where a Medicines Regulatory Agency has granted a marketing authorization for which specific provisions within a jurisdiction apply, the jurisdiction can be specified using an appropriate controlled terminology The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.jurisdiction` has is mapped to FHIR R4 element `MarketingStatus.jurisdiction`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.jurisdiction` is mapped to FHIR R4 element `MarketingStatus.jurisdiction` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:jurisdiction.id</t>
@@ -822,7 +829,7 @@
     <t>This attribute provides information on the status of the marketing of the medicinal product See ISO/TS 20443 for more information and examples.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.status` has is mapped to FHIR R4 element `MarketingStatus.status`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.status` is mapped to FHIR R4 element `MarketingStatus.status` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:status.id</t>
@@ -849,7 +856,7 @@
     <t>The date when the Medicinal Product is placed on the market by the Marketing Authorization Holder (or where applicable, the manufacturer/distributor) in a country and/or jurisdiction shall be provided A complete date consisting of day, month and year shall be specified using the ISO 8601 date format NOTE “Placed on the market” refers to the release of the Medicinal Product into the distribution chain.</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.dateRange` has is mapped to FHIR R4 element `MarketingStatus.dateRange`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.dateRange` is mapped to FHIR R4 element `MarketingStatus.dateRange` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:dateRange.id</t>
@@ -874,7 +881,7 @@
     <t>restoreDate</t>
   </si>
   <si>
-    <t>Element `MarketingStatus.restoreDate` has is mapped to FHIR R4 element `MarketingStatus.restoreDate`, but has no comparisons.</t>
+    <t>Element `MarketingStatus.restoreDate` is mapped to FHIR R4 element `MarketingStatus.restoreDate` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:marketingStatus.extension:restoreDate.id</t>
@@ -954,7 +961,7 @@
     <t>Extension.extension:manufacturer.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -986,7 +993,7 @@
     <t>Extension.extension:attachedDocument.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|Media)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DocumentReference-for-Media|0.0.1-snapshot-3|Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1023,8 +1030,7 @@
     <t>A business identifier that is specific to this particular part of the packaging, often assigned by the manufacturer. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.identifier` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.identifier` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.identifier` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:identifier.id</t>
@@ -1052,8 +1058,7 @@
     <t>The physical type of the container of the items.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.type` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.type` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.type` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:type.id</t>
@@ -1068,7 +1073,7 @@
     <t>Extension.extension:packaging.extension:type.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-packaging-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-packaging-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:componentPart</t>
@@ -1083,8 +1088,7 @@
     <t>Is this a part of the packaging (e.g. a cap or bottle stopper), rather than the packaging itself (e.g. a bottle or vial). The latter type are designed be a container, but the former are not.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.componentPart` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.componentPart` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.componentPart` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:componentPart.id</t>
@@ -1111,8 +1115,7 @@
     <t>The quantity of packaging items contained at this layer of the package. This does not relate to the number of contained items but relates solely to the number of packaging items. When looking at the outermost layer it is always 1. If there are two boxes within, at the next layer it would be 2.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.quantity` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.quantity` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.quantity` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:quantity.id</t>
@@ -1143,8 +1146,7 @@
     <t>Material type of the package item.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.material` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.material` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.material` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:material.id</t>
@@ -1162,7 +1164,7 @@
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-material-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-package-material-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:alternateMaterial</t>
@@ -1177,8 +1179,7 @@
     <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.alternateMaterial` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.alternateMaterial` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.alternateMaterial` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:alternateMaterial.id</t>
@@ -1205,8 +1206,7 @@
     <t>Shelf Life and storage information.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.shelfLifeStorage` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.shelfLifeStorage` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.shelfLifeStorage` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:shelfLifeStorage.id</t>
@@ -1263,7 +1263,7 @@
     <t>This describes the shelf life, taking into account various scenarios such as shelf life of the packaged Medicinal Product itself, shelf life after transformation where necessary and shelf life after the first opening of a bottle, etc. The shelf life type shall be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>Element `ProductShelfLife.type` has is mapped to FHIR R4 element `ProductShelfLife.type`, but has no comparisons.</t>
+    <t>Element `ProductShelfLife.type` is mapped to FHIR R4 element `ProductShelfLife.type` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:shelfLifeStorage.extension:type.id</t>
@@ -1290,7 +1290,7 @@
     <t>The shelf life time period can be specified using a numerical value for the period of time and its unit of time measurement The unit of measurement shall be specified in accordance with ISO 11240 and the resulting terminology The symbol and the symbol identifier shall be used.</t>
   </si>
   <si>
-    <t>Element `ProductShelfLife.period[x]` has is mapped to FHIR R4 element `ProductShelfLife.period`, but has no comparisons.</t>
+    <t>Element `ProductShelfLife.period[x]` is mapped to FHIR R4 element `ProductShelfLife.period` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:shelfLifeStorage.extension:period.id</t>
@@ -1317,7 +1317,7 @@
     <t>Special precautions for storage, if any, can be specified using an appropriate controlled vocabulary The controlled term and the controlled term identifier shall be specified.</t>
   </si>
   <si>
-    <t>Element `ProductShelfLife.specialPrecautionsForStorage` has is mapped to FHIR R4 element `ProductShelfLife.specialPrecautionsForStorage`, but has no comparisons.</t>
+    <t>Element `ProductShelfLife.specialPrecautionsForStorage` is mapped to FHIR R4 element `ProductShelfLife.specialPrecautionsForStorage` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:shelfLifeStorage.extension:specialPrecautionsForStorage.id</t>
@@ -1347,8 +1347,7 @@
     <t>Manufacturer of this packaging item. When there are multiple values each one is a potential manufacturer of this packaging item.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.manufacturer` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PackagedProductDefinition.packaging.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PackagedProductDefinition.packaging.manufacturer` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `PackagedProductDefinition.packaging.manufacturer` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
@@ -1376,8 +1375,7 @@
     <t>General characteristics of this item.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.property` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.property` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.property` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:property.id</t>
@@ -1395,8 +1393,7 @@
     <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.property.type` is part of an existing definition because parent element `PackagedProductDefinition.packaging.property` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.property.type` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.property.type` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:property.extension:type.id</t>
@@ -1423,8 +1420,7 @@
     <t>A value for the characteristic.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.property.value[x]` is part of an existing definition because parent element `PackagedProductDefinition.packaging.property` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.property.value[x]` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:property.extension:value.id</t>
@@ -1461,8 +1457,7 @@
     <t>The item(s) within the packaging.</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.containedItem` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.containedItem` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.containedItem` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.id</t>
@@ -1483,8 +1478,7 @@
     <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.packaging.packaging).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.containedItem.item` is part of an existing definition because parent element `PackagedProductDefinition.packaging.containedItem` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.containedItem.item` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.containedItem.item` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:item.id</t>
@@ -1544,7 +1538,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:concept.id</t>
@@ -1571,7 +1565,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:reference.id</t>
@@ -1586,7 +1580,7 @@
     <t>Extension.extension:packaging.extension:containedItem.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ManufacturedItemDefinition|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PackagedProductDefinition|0.0.1-snapshot-3|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3)
 </t>
   </si>
   <si>
@@ -1608,8 +1602,7 @@
     <t>The number of this type of item within this packaging or for continuous items such as liquids it is the quantity (for example 25ml). See also PackagedProductDefinition.containedItemQuantity (especially the long definition).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.containedItem.amount` is part of an existing definition because parent element `PackagedProductDefinition.packaging.containedItem` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.containedItem.amount` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.containedItem.amount` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:containedItem.extension:amount.id</t>
@@ -1639,8 +1632,7 @@
     <t>Allows containers (and parts of containers) within containers, still as a part of a single packaged product. See also PackagedProductDefinition.packaging.containedItem.item(PackagedProductDefinition).</t>
   </si>
   <si>
-    <t>Element `PackagedProductDefinition.packaging.packaging` is part of an existing definition because parent element `PackagedProductDefinition.packaging` requires a cross-version extension.
-Element `PackagedProductDefinition.packaging.packaging` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
+    <t>Element `PackagedProductDefinition.packaging.packaging` is not mapped to FHIR R4, since FHIR R5 `PackagedProductDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:packaging.extension:packaging.id</t>
@@ -2042,7 +2034,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.02734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4527,13 +4519,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4571,13 +4563,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4602,14 +4594,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4678,7 +4670,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4781,7 +4773,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4886,7 +4878,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4929,7 +4921,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4991,7 +4983,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>121</v>
@@ -5017,13 +5009,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5094,13 +5086,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5125,14 +5117,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5201,7 +5193,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -5304,7 +5296,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -5409,7 +5401,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -5452,7 +5444,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5514,7 +5506,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>121</v>
@@ -5540,13 +5532,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5617,13 +5609,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5648,14 +5640,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5724,7 +5716,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -5827,7 +5819,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -5932,7 +5924,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -5975,7 +5967,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6037,7 +6029,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>121</v>
@@ -6063,13 +6055,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6140,13 +6132,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6171,14 +6163,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6247,7 +6239,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -6350,7 +6342,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -6453,13 +6445,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6484,14 +6476,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6560,10 +6552,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6663,10 +6655,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6768,10 +6760,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6811,7 +6803,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6873,10 +6865,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6902,10 +6894,10 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6935,10 +6927,10 @@
         <v>134</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6976,13 +6968,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -7007,14 +6999,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7083,10 +7075,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7186,10 +7178,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7291,10 +7283,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7334,7 +7326,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7396,10 +7388,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7425,10 +7417,10 @@
         <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7499,7 +7491,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -7542,7 +7534,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7604,7 +7596,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>121</v>
@@ -7630,13 +7622,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7707,13 +7699,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7738,14 +7730,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7814,7 +7806,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7917,7 +7909,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -8020,13 +8012,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -8051,10 +8043,10 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8125,10 +8117,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8228,10 +8220,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8333,10 +8325,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8376,7 +8368,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8438,10 +8430,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8467,13 +8459,13 @@
         <v>87</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8481,7 +8473,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>77</v>
@@ -8543,13 +8535,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8574,14 +8566,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8650,10 +8642,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8753,10 +8745,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8858,10 +8850,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8901,7 +8893,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8963,10 +8955,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8992,10 +8984,10 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9066,13 +9058,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -9097,14 +9089,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9173,10 +9165,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9276,10 +9268,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9381,10 +9373,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9424,7 +9416,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9486,10 +9478,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9515,10 +9507,10 @@
         <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9589,7 +9581,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
@@ -9620,14 +9612,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9696,10 +9688,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9799,10 +9791,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9904,10 +9896,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10009,10 +10001,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10038,10 +10030,10 @@
         <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10112,13 +10104,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -10143,14 +10135,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10219,10 +10211,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10322,10 +10314,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10427,10 +10419,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10470,7 +10462,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10532,10 +10524,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10558,13 +10550,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10635,13 +10627,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10666,14 +10658,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10742,10 +10734,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10845,10 +10837,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10950,10 +10942,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10993,7 +10985,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11055,10 +11047,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11081,13 +11073,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11158,7 +11150,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>113</v>
@@ -11201,7 +11193,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11263,7 +11255,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>121</v>
@@ -11289,13 +11281,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11366,13 +11358,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11397,14 +11389,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11465,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>105</v>
@@ -11576,7 +11568,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>107</v>
@@ -11681,7 +11673,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -11724,7 +11716,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11786,7 +11778,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>121</v>
@@ -11812,13 +11804,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11889,13 +11881,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11920,14 +11912,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11996,7 +11988,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -12099,7 +12091,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -12204,7 +12196,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -12247,7 +12239,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12309,7 +12301,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>121</v>
@@ -12335,13 +12327,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12412,13 +12404,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12443,14 +12435,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12519,7 +12511,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12622,7 +12614,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12727,7 +12719,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12770,7 +12762,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12832,7 +12824,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>121</v>
@@ -12858,13 +12850,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12935,13 +12927,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12966,14 +12958,14 @@
         <v>93</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13042,7 +13034,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>105</v>
@@ -13145,7 +13137,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>107</v>
@@ -13248,13 +13240,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13279,14 +13271,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13355,10 +13347,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13458,10 +13450,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13563,10 +13555,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13606,7 +13598,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13668,10 +13660,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13694,13 +13686,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13771,7 +13763,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>107</v>
@@ -13802,14 +13794,14 @@
         <v>93</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13878,10 +13870,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13981,10 +13973,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14086,10 +14078,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14191,10 +14183,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14220,10 +14212,10 @@
         <v>133</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -14256,7 +14248,7 @@
         <v>135</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -14294,13 +14286,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14325,14 +14317,14 @@
         <v>93</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14401,10 +14393,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14504,10 +14496,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14609,10 +14601,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14652,7 +14644,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14714,10 +14706,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14740,13 +14732,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14817,13 +14809,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14848,14 +14840,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14924,10 +14916,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15027,10 +15019,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15132,10 +15124,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15175,7 +15167,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15237,10 +15229,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15263,13 +15255,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15340,13 +15332,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15371,14 +15363,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15447,10 +15439,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15550,10 +15542,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15655,10 +15647,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15698,7 +15690,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15760,10 +15752,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15789,10 +15781,10 @@
         <v>133</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -15822,10 +15814,10 @@
         <v>134</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>77</v>
@@ -15863,13 +15855,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15894,14 +15886,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15970,10 +15962,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16073,10 +16065,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16178,10 +16170,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16221,7 +16213,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16283,10 +16275,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16312,10 +16304,10 @@
         <v>133</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16345,10 +16337,10 @@
         <v>134</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16386,13 +16378,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16417,14 +16409,14 @@
         <v>93</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16493,10 +16485,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16596,10 +16588,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16699,13 +16691,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16730,10 +16722,10 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -16804,10 +16796,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16907,10 +16899,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17012,10 +17004,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17055,7 +17047,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17117,10 +17109,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17146,13 +17138,13 @@
         <v>87</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
@@ -17160,7 +17152,7 @@
       </c>
       <c r="Q145" s="2"/>
       <c r="R145" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="S145" t="s" s="2">
         <v>77</v>
@@ -17222,10 +17214,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>125</v>
@@ -17253,14 +17245,14 @@
         <v>93</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>77</v>
@@ -17329,10 +17321,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17432,10 +17424,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -17537,10 +17529,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17642,10 +17634,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17671,10 +17663,10 @@
         <v>133</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -17745,13 +17737,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17776,14 +17768,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -17852,10 +17844,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17955,10 +17947,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18060,10 +18052,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18103,7 +18095,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18165,10 +18157,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18194,10 +18186,10 @@
         <v>87</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18268,13 +18260,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18299,14 +18291,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18375,10 +18367,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18478,10 +18470,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18583,10 +18575,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18626,7 +18618,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -18688,10 +18680,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18717,10 +18709,10 @@
         <v>133</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -18791,10 +18783,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18834,7 +18826,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18896,10 +18888,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18922,13 +18914,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -18999,13 +18991,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19030,14 +19022,14 @@
         <v>93</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19106,10 +19098,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19209,10 +19201,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19314,10 +19306,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19357,7 +19349,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19419,10 +19411,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19445,13 +19437,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19522,13 +19514,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19553,14 +19545,14 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19629,10 +19621,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19732,10 +19724,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19835,10 +19827,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>125</v>
@@ -19866,14 +19858,14 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>77</v>
@@ -19942,10 +19934,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20045,10 +20037,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20150,10 +20142,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20255,10 +20247,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20284,10 +20276,10 @@
         <v>133</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -20358,13 +20350,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20389,14 +20381,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20465,10 +20457,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20568,10 +20560,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20673,10 +20665,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20716,7 +20708,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20778,10 +20770,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20804,13 +20796,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -20881,10 +20873,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20924,7 +20916,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20986,10 +20978,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21012,13 +21004,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21089,13 +21081,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21120,14 +21112,14 @@
         <v>93</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21196,10 +21188,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21299,10 +21291,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21402,13 +21394,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21433,14 +21425,14 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -21509,10 +21501,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21612,10 +21604,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21715,13 +21707,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D189" t="s" s="2">
         <v>77</v>
@@ -21746,10 +21738,10 @@
         <v>93</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -21820,10 +21812,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21923,10 +21915,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22028,10 +22020,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22071,7 +22063,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>77</v>
@@ -22133,10 +22125,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22162,13 +22154,13 @@
         <v>87</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -22176,7 +22168,7 @@
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>77</v>
@@ -22238,13 +22230,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D194" t="s" s="2">
         <v>77</v>
@@ -22269,14 +22261,14 @@
         <v>93</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>77</v>
@@ -22345,10 +22337,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22448,10 +22440,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22553,10 +22545,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22596,7 +22588,7 @@
       </c>
       <c r="Q197" s="2"/>
       <c r="R197" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="S197" t="s" s="2">
         <v>77</v>
@@ -22658,10 +22650,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22687,10 +22679,10 @@
         <v>133</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -22761,13 +22753,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D199" t="s" s="2">
         <v>77</v>
@@ -22792,14 +22784,14 @@
         <v>93</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>77</v>
@@ -22868,10 +22860,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22971,10 +22963,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23076,10 +23068,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23119,7 +23111,7 @@
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>77</v>
@@ -23181,10 +23173,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23207,13 +23199,13 @@
         <v>77</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23284,10 +23276,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23327,7 +23319,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>77</v>
@@ -23389,10 +23381,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23415,13 +23407,13 @@
         <v>77</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -23492,13 +23484,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D206" t="s" s="2">
         <v>77</v>
@@ -23523,14 +23515,14 @@
         <v>93</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>77</v>
@@ -23599,10 +23591,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23702,10 +23694,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23807,10 +23799,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -23850,7 +23842,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>77</v>
@@ -23912,10 +23904,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -23938,13 +23930,13 @@
         <v>77</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -24015,10 +24007,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24058,7 +24050,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24120,10 +24112,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24146,13 +24138,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24223,13 +24215,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24254,14 +24246,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24330,10 +24322,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24433,10 +24425,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24538,10 +24530,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24581,7 +24573,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24643,10 +24635,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24669,13 +24661,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -24746,7 +24738,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>113</v>
@@ -24789,7 +24781,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -24851,7 +24843,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>121</v>
@@ -24877,13 +24869,13 @@
         <v>77</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -24954,13 +24946,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -24985,14 +24977,14 @@
         <v>93</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25061,7 +25053,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>105</v>
@@ -25164,7 +25156,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>107</v>
@@ -25269,7 +25261,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>113</v>
@@ -25312,7 +25304,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25374,7 +25366,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>121</v>
@@ -25400,13 +25392,13 @@
         <v>77</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25608,13 +25600,13 @@
         <v>77</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
